--- a/scenarios/multi_pow_01/multi_pow_algos_approximation.xlsx
+++ b/scenarios/multi_pow_01/multi_pow_algos_approximation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pluto\Documents\Code\@tari-modelling\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pluto\Documents\Code\@tari-modelling\scenarios\multi_pow_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE826F7-1F79-4C15-A93A-A5BA958955D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="0" windowWidth="18510" windowHeight="12780"/>
+    <workbookView xWindow="5085" yWindow="3315" windowWidth="17085" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algos" sheetId="9" r:id="rId1"/>
@@ -17,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Algos!$A$2:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,6 +637,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Block time vs. Difficulty/Hash Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -634,26 +670,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1583,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
